--- a/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H2">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I2">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J2">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N2">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O2">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P2">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q2">
-        <v>24.10129010574046</v>
+        <v>40.00634786241</v>
       </c>
       <c r="R2">
-        <v>24.10129010574046</v>
+        <v>160.02539144964</v>
       </c>
       <c r="S2">
-        <v>0.0002765606632163287</v>
+        <v>0.0002725703784750184</v>
       </c>
       <c r="T2">
-        <v>0.0002765606632163287</v>
+        <v>0.0001325852318820288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H3">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I3">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J3">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N3">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O3">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P3">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q3">
-        <v>9.696756119157277</v>
+        <v>17.5072228310025</v>
       </c>
       <c r="R3">
-        <v>9.696756119157277</v>
+        <v>105.043336986015</v>
       </c>
       <c r="S3">
-        <v>0.0001112696163398486</v>
+        <v>0.0001192798295286675</v>
       </c>
       <c r="T3">
-        <v>0.0001112696163398486</v>
+        <v>8.703115840423222E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H4">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I4">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J4">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N4">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O4">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P4">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q4">
-        <v>15.21402728443955</v>
+        <v>39.85146485344499</v>
       </c>
       <c r="R4">
-        <v>15.21402728443955</v>
+        <v>239.10878912067</v>
       </c>
       <c r="S4">
-        <v>0.0001745799273613886</v>
+        <v>0.0002715151329295332</v>
       </c>
       <c r="T4">
-        <v>0.0001745799273613886</v>
+        <v>0.0001981079000239275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H5">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I5">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J5">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N5">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O5">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P5">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q5">
-        <v>43.80283912640849</v>
+        <v>73.2157026398955</v>
       </c>
       <c r="R5">
-        <v>43.80283912640849</v>
+        <v>439.294215839373</v>
       </c>
       <c r="S5">
-        <v>0.0005026345970032671</v>
+        <v>0.0004988316316076881</v>
       </c>
       <c r="T5">
-        <v>0.0005026345970032671</v>
+        <v>0.0003639667739217912</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H6">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I6">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J6">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N6">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O6">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P6">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q6">
-        <v>10.53868562526442</v>
+        <v>18.359826631755</v>
       </c>
       <c r="R6">
-        <v>10.53868562526442</v>
+        <v>110.15895979053</v>
       </c>
       <c r="S6">
-        <v>0.0001209307001062702</v>
+        <v>0.0001250887711861165</v>
       </c>
       <c r="T6">
-        <v>0.0001209307001062702</v>
+        <v>9.126958600383639E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.65940096425221</v>
+        <v>6.0587955</v>
       </c>
       <c r="H7">
-        <v>3.65940096425221</v>
+        <v>12.117591</v>
       </c>
       <c r="I7">
-        <v>0.001217580206043308</v>
+        <v>0.00132156215963526</v>
       </c>
       <c r="J7">
-        <v>0.001217580206043308</v>
+        <v>0.0008896335791751394</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N7">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O7">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P7">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q7">
-        <v>2.754238737857729</v>
+        <v>5.030899637640751</v>
       </c>
       <c r="R7">
-        <v>2.754238737857729</v>
+        <v>20.123598550563</v>
       </c>
       <c r="S7">
-        <v>3.160470201620503E-05</v>
+        <v>3.427641590823698E-05</v>
       </c>
       <c r="T7">
-        <v>3.160470201620503E-05</v>
+        <v>1.667292893932337E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H8">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I8">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J8">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N8">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O8">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P8">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q8">
-        <v>185.6679150395973</v>
+        <v>209.8418934476934</v>
       </c>
       <c r="R8">
-        <v>185.6679150395973</v>
+        <v>1259.05136068616</v>
       </c>
       <c r="S8">
-        <v>0.002130526685337637</v>
+        <v>0.001429690221003511</v>
       </c>
       <c r="T8">
-        <v>0.002130526685337637</v>
+        <v>0.001043157058362777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H9">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I9">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J9">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N9">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O9">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P9">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q9">
-        <v>74.70041991082351</v>
+        <v>91.82914672699</v>
       </c>
       <c r="R9">
-        <v>74.70041991082351</v>
+        <v>826.4623205429101</v>
       </c>
       <c r="S9">
-        <v>0.0008571822330853145</v>
+        <v>0.0006256483437202672</v>
       </c>
       <c r="T9">
-        <v>0.0008571822330853145</v>
+        <v>0.0006847456982814199</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H10">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I10">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J10">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N10">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O10">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P10">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q10">
-        <v>117.2035485596116</v>
+        <v>209.0294987753311</v>
       </c>
       <c r="R10">
-        <v>117.2035485596116</v>
+        <v>1881.26548897798</v>
       </c>
       <c r="S10">
-        <v>0.001344902740838467</v>
+        <v>0.001424155231304415</v>
       </c>
       <c r="T10">
-        <v>0.001344902740838467</v>
+        <v>0.001558677774997343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H11">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I11">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J11">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N11">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O11">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P11">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q11">
-        <v>337.4417625668133</v>
+        <v>384.032097228618</v>
       </c>
       <c r="R11">
-        <v>337.4417625668133</v>
+        <v>3456.288875057562</v>
       </c>
       <c r="S11">
-        <v>0.003872121253382078</v>
+        <v>0.002616479125966731</v>
       </c>
       <c r="T11">
-        <v>0.003872121253382078</v>
+        <v>0.002863625939605937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H12">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I12">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J12">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N12">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O12">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P12">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q12">
-        <v>81.18635055285159</v>
+        <v>96.30123691942445</v>
       </c>
       <c r="R12">
-        <v>81.18635055285159</v>
+        <v>866.7111322748201</v>
       </c>
       <c r="S12">
-        <v>0.0009316078456589399</v>
+        <v>0.0006561174912795127</v>
       </c>
       <c r="T12">
-        <v>0.0009316078456589399</v>
+        <v>0.0007180928939239988</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.190745986862</v>
+        <v>31.77968466666667</v>
       </c>
       <c r="H13">
-        <v>28.190745986862</v>
+        <v>95.339054</v>
       </c>
       <c r="I13">
-        <v>0.009379812336091498</v>
+        <v>0.006931877582038802</v>
       </c>
       <c r="J13">
-        <v>0.009379812336091498</v>
+        <v>0.006999479009086203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N13">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O13">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P13">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q13">
-        <v>21.21769256897734</v>
+        <v>26.38814993407034</v>
       </c>
       <c r="R13">
-        <v>21.21769256897734</v>
+        <v>158.328899604422</v>
       </c>
       <c r="S13">
-        <v>0.0002434715777890622</v>
+        <v>0.0001797871687643671</v>
       </c>
       <c r="T13">
-        <v>0.0002434715777890622</v>
+        <v>0.0001311796439147281</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H14">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I14">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J14">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N14">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O14">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P14">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q14">
-        <v>13897.19580414781</v>
+        <v>22149.5519733701</v>
       </c>
       <c r="R14">
-        <v>13897.19580414781</v>
+        <v>132897.3118402206</v>
       </c>
       <c r="S14">
-        <v>0.1594693757711697</v>
+        <v>0.1509088453961638</v>
       </c>
       <c r="T14">
-        <v>0.1594693757711697</v>
+        <v>0.1101089067629559</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H15">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I15">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J15">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N15">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O15">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P15">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q15">
-        <v>5591.307264539354</v>
+        <v>9692.890321763591</v>
       </c>
       <c r="R15">
-        <v>5591.307264539354</v>
+        <v>87236.01289587232</v>
       </c>
       <c r="S15">
-        <v>0.06415987022034864</v>
+        <v>0.06603938936406553</v>
       </c>
       <c r="T15">
-        <v>0.06415987022034864</v>
+        <v>0.07227732357650735</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H16">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I16">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J16">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N16">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O16">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P16">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q16">
-        <v>8772.655538930861</v>
+        <v>22063.8008503568</v>
       </c>
       <c r="R16">
-        <v>8772.655538930861</v>
+        <v>198574.2076532112</v>
       </c>
       <c r="S16">
-        <v>0.1006656250918805</v>
+        <v>0.1503246077113149</v>
       </c>
       <c r="T16">
-        <v>0.1006656250918805</v>
+        <v>0.1645239366639922</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H17">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I17">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J17">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N17">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O17">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P17">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q17">
-        <v>25257.42935114897</v>
+        <v>40535.94235761074</v>
       </c>
       <c r="R17">
-        <v>25257.42935114897</v>
+        <v>364823.4812184966</v>
       </c>
       <c r="S17">
-        <v>0.2898272823507314</v>
+        <v>0.2761786001625268</v>
       </c>
       <c r="T17">
-        <v>0.2898272823507314</v>
+        <v>0.3022658180379171</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H18">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I18">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J18">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N18">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O18">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P18">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q18">
-        <v>6076.777509008696</v>
+        <v>10164.93521479929</v>
       </c>
       <c r="R18">
-        <v>6076.777509008696</v>
+        <v>91484.41693319363</v>
       </c>
       <c r="S18">
-        <v>0.06973060822620566</v>
+        <v>0.06925551535473201</v>
       </c>
       <c r="T18">
-        <v>0.06973060822620566</v>
+        <v>0.07579723769334958</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2110.07010425502</v>
+        <v>3354.457804666667</v>
       </c>
       <c r="H19">
-        <v>2110.07010425502</v>
+        <v>10063.373414</v>
       </c>
       <c r="I19">
-        <v>0.7020765467906734</v>
+        <v>0.7316841277677443</v>
       </c>
       <c r="J19">
-        <v>0.7020765467906734</v>
+        <v>0.7388196968252817</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N19">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O19">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P19">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q19">
-        <v>1588.138844993245</v>
+        <v>2785.362297502651</v>
       </c>
       <c r="R19">
-        <v>1588.138844993245</v>
+        <v>16712.1737850159</v>
       </c>
       <c r="S19">
-        <v>0.01822378513033762</v>
+        <v>0.01897716977894141</v>
       </c>
       <c r="T19">
-        <v>0.01822378513033762</v>
+        <v>0.01384647409055959</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H20">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I20">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J20">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N20">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O20">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P20">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q20">
-        <v>5068.185307802446</v>
+        <v>6974.147552701581</v>
       </c>
       <c r="R20">
-        <v>5068.185307802446</v>
+        <v>41844.88531620948</v>
       </c>
       <c r="S20">
-        <v>0.05815708137944239</v>
+        <v>0.04751611030625028</v>
       </c>
       <c r="T20">
-        <v>0.05815708137944239</v>
+        <v>0.03466958444824361</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H21">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I21">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J21">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N21">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O21">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P21">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q21">
-        <v>2039.100673899236</v>
+        <v>3051.964545260595</v>
       </c>
       <c r="R21">
-        <v>2039.100673899236</v>
+        <v>27467.68090734536</v>
       </c>
       <c r="S21">
-        <v>0.02339854141683964</v>
+        <v>0.02079357841048142</v>
       </c>
       <c r="T21">
-        <v>0.02339854141683964</v>
+        <v>0.02275769369705329</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H22">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I22">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J22">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N22">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O22">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P22">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q22">
-        <v>3199.310460859378</v>
+        <v>6947.147413582577</v>
       </c>
       <c r="R22">
-        <v>3199.310460859378</v>
+        <v>62524.32672224318</v>
       </c>
       <c r="S22">
-        <v>0.03671186973843633</v>
+        <v>0.04733215354609172</v>
       </c>
       <c r="T22">
-        <v>0.03671186973843633</v>
+        <v>0.05180304376474618</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H23">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I23">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J23">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N23">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O23">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P23">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q23">
-        <v>9211.162752139202</v>
+        <v>12763.40232658753</v>
       </c>
       <c r="R23">
-        <v>9211.162752139202</v>
+        <v>114870.6209392877</v>
       </c>
       <c r="S23">
-        <v>0.1056974655111267</v>
+        <v>0.08695933492233855</v>
       </c>
       <c r="T23">
-        <v>0.1056974655111267</v>
+        <v>0.09517332078178996</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H24">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I24">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J24">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N24">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O24">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P24">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q24">
-        <v>2216.147410166738</v>
+        <v>3200.595575788357</v>
       </c>
       <c r="R24">
-        <v>2216.147410166738</v>
+        <v>28805.36018209521</v>
       </c>
       <c r="S24">
-        <v>0.02543014066267272</v>
+        <v>0.02180622811255906</v>
       </c>
       <c r="T24">
-        <v>0.02543014066267272</v>
+        <v>0.02386599604344879</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>769.5240429458891</v>
+        <v>1056.205729</v>
       </c>
       <c r="H25">
-        <v>769.5240429458891</v>
+        <v>3168.617187</v>
       </c>
       <c r="I25">
-        <v>0.2560411531609246</v>
+        <v>0.2303826765957647</v>
       </c>
       <c r="J25">
-        <v>0.2560411531609246</v>
+        <v>0.2326294268478505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N25">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O25">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P25">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q25">
-        <v>579.1802946708705</v>
+        <v>877.0167303550986</v>
       </c>
       <c r="R25">
-        <v>579.1802946708705</v>
+        <v>5262.100382130591</v>
       </c>
       <c r="S25">
-        <v>0.006646054452406813</v>
+        <v>0.00597527129804375</v>
       </c>
       <c r="T25">
-        <v>0.006646054452406813</v>
+        <v>0.00435978811256872</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H26">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I26">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J26">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N26">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O26">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P26">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q26">
-        <v>53.07532545845318</v>
+        <v>61.36504751564</v>
       </c>
       <c r="R26">
-        <v>53.07532545845318</v>
+        <v>368.19028509384</v>
       </c>
       <c r="S26">
-        <v>0.0006090357464190749</v>
+        <v>0.0004180910060573543</v>
       </c>
       <c r="T26">
-        <v>0.0006090357464190749</v>
+        <v>0.0003050553033094104</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H27">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I27">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J27">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N27">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O27">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P27">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q27">
-        <v>21.35398083079952</v>
+        <v>26.85402738051</v>
       </c>
       <c r="R27">
-        <v>21.35398083079952</v>
+        <v>241.68624642459</v>
       </c>
       <c r="S27">
-        <v>0.0002450354763153558</v>
+        <v>0.0001829612748421265</v>
       </c>
       <c r="T27">
-        <v>0.0002450354763153558</v>
+        <v>0.0002002433909682743</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H28">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I28">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J28">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N28">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O28">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P28">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q28">
-        <v>33.50399277850639</v>
+        <v>61.12747513744666</v>
       </c>
       <c r="R28">
-        <v>33.50399277850639</v>
+        <v>550.1472762370199</v>
       </c>
       <c r="S28">
-        <v>0.000384456036277156</v>
+        <v>0.0004164723831012656</v>
       </c>
       <c r="T28">
-        <v>0.000384456036277156</v>
+        <v>0.000455811440474473</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H29">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I29">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J29">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N29">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O29">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P29">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q29">
-        <v>96.46163887652898</v>
+        <v>112.304304477882</v>
       </c>
       <c r="R29">
-        <v>96.46163887652898</v>
+        <v>1010.738740300938</v>
       </c>
       <c r="S29">
-        <v>0.001106890739275106</v>
+        <v>0.0007651492428448327</v>
       </c>
       <c r="T29">
-        <v>0.001106890739275106</v>
+        <v>0.0008374235428577105</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H30">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I30">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J30">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N30">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O30">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P30">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q30">
-        <v>23.20805927861953</v>
+        <v>28.16182165668667</v>
       </c>
       <c r="R30">
-        <v>23.20805927861953</v>
+        <v>253.45639491018</v>
       </c>
       <c r="S30">
-        <v>0.0002663109002837213</v>
+        <v>0.0001918715103390256</v>
       </c>
       <c r="T30">
-        <v>0.0002663109002837213</v>
+        <v>0.0002099952675430551</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.058651479175509</v>
+        <v>9.293481999999999</v>
       </c>
       <c r="H31">
-        <v>8.058651479175509</v>
+        <v>27.880446</v>
       </c>
       <c r="I31">
-        <v>0.002681328070986831</v>
+        <v>0.002027121420825545</v>
       </c>
       <c r="J31">
-        <v>0.002681328070986831</v>
+        <v>0.002046890422690384</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N31">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O31">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P31">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q31">
-        <v>6.065323339984217</v>
+        <v>7.716810251513</v>
       </c>
       <c r="R31">
-        <v>6.065323339984217</v>
+        <v>46.300861509078</v>
       </c>
       <c r="S31">
-        <v>6.95991724164169E-05</v>
+        <v>5.25760036409405E-05</v>
       </c>
       <c r="T31">
-        <v>6.95991724164169E-05</v>
+        <v>3.836147753746124E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H32">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I32">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J32">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.58612989972404</v>
+        <v>6.603020000000001</v>
       </c>
       <c r="N32">
-        <v>6.58612989972404</v>
+        <v>13.20604</v>
       </c>
       <c r="O32">
-        <v>0.227139585420044</v>
+        <v>0.2062486251499858</v>
       </c>
       <c r="P32">
-        <v>0.227139585420044</v>
+        <v>0.1490335290681818</v>
       </c>
       <c r="Q32">
-        <v>566.1911737810921</v>
+        <v>837.1009309043001</v>
       </c>
       <c r="R32">
-        <v>566.1911737810921</v>
+        <v>3348.4037236172</v>
       </c>
       <c r="S32">
-        <v>0.006497005174458883</v>
+        <v>0.00570331784203584</v>
       </c>
       <c r="T32">
-        <v>0.006497005174458883</v>
+        <v>0.002774240263428106</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H33">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I33">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J33">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.64982061651142</v>
+        <v>2.889555</v>
       </c>
       <c r="N33">
-        <v>2.64982061651142</v>
+        <v>8.668665000000001</v>
       </c>
       <c r="O33">
-        <v>0.09138586171783648</v>
+        <v>0.09025669255057035</v>
       </c>
       <c r="P33">
-        <v>0.09138586171783648</v>
+        <v>0.0978280951185844</v>
       </c>
       <c r="Q33">
-        <v>227.7976699540653</v>
+        <v>366.324678768075</v>
       </c>
       <c r="R33">
-        <v>227.7976699540653</v>
+        <v>2197.94807260845</v>
       </c>
       <c r="S33">
-        <v>0.002613962754907685</v>
+        <v>0.002495835327932351</v>
       </c>
       <c r="T33">
-        <v>0.002613962754907685</v>
+        <v>0.00182105759736984</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H34">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I34">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J34">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.15751852094418</v>
+        <v>6.577456666666667</v>
       </c>
       <c r="N34">
-        <v>4.15751852094418</v>
+        <v>19.73237</v>
       </c>
       <c r="O34">
-        <v>0.1433826917478478</v>
+        <v>0.2054501416751135</v>
       </c>
       <c r="P34">
-        <v>0.1433826917478478</v>
+        <v>0.2226848273955795</v>
       </c>
       <c r="Q34">
-        <v>357.410243531432</v>
+        <v>833.8601274340166</v>
       </c>
       <c r="R34">
-        <v>357.410243531432</v>
+        <v>5003.160764604099</v>
       </c>
       <c r="S34">
-        <v>0.004101258213053885</v>
+        <v>0.005681237670371675</v>
       </c>
       <c r="T34">
-        <v>0.004101258213053885</v>
+        <v>0.004145249851345358</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H35">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I35">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J35">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.9699479653385</v>
+        <v>12.084201</v>
       </c>
       <c r="N35">
-        <v>11.9699479653385</v>
+        <v>36.252603</v>
       </c>
       <c r="O35">
-        <v>0.412814362871951</v>
+        <v>0.377456049245055</v>
       </c>
       <c r="P35">
-        <v>0.412814362871951</v>
+        <v>0.4091198696200947</v>
       </c>
       <c r="Q35">
-        <v>1029.022960643028</v>
+        <v>1531.980200928465</v>
       </c>
       <c r="R35">
-        <v>1029.022960643028</v>
+        <v>9191.881205570789</v>
       </c>
       <c r="S35">
-        <v>0.01180796842043251</v>
+        <v>0.01043765415977043</v>
       </c>
       <c r="T35">
-        <v>0.01180796842043251</v>
+        <v>0.007615714544002179</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H36">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I36">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J36">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.87989365697125</v>
+        <v>3.030276666666667</v>
       </c>
       <c r="N36">
-        <v>2.87989365697125</v>
+        <v>9.09083</v>
       </c>
       <c r="O36">
-        <v>0.09932052073945163</v>
+        <v>0.09465220404058775</v>
       </c>
       <c r="P36">
-        <v>0.09932052073945163</v>
+        <v>0.1025923347997507</v>
       </c>
       <c r="Q36">
-        <v>247.5764059973361</v>
+        <v>384.1647334953167</v>
       </c>
       <c r="R36">
-        <v>247.5764059973361</v>
+        <v>2304.9884009719</v>
       </c>
       <c r="S36">
-        <v>0.002840922404524318</v>
+        <v>0.002617382800492031</v>
       </c>
       <c r="T36">
-        <v>0.002840922404524318</v>
+        <v>0.001909743315481411</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.9672041702086</v>
+        <v>126.775465</v>
       </c>
       <c r="H37">
-        <v>85.9672041702086</v>
+        <v>253.55093</v>
       </c>
       <c r="I37">
-        <v>0.02860357943528039</v>
+        <v>0.02765263447399147</v>
       </c>
       <c r="J37">
-        <v>0.02860357943528039</v>
+        <v>0.01861487331591611</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.752647431851063</v>
+        <v>0.8303465000000001</v>
       </c>
       <c r="N37">
-        <v>0.752647431851063</v>
+        <v>1.660693</v>
       </c>
       <c r="O37">
-        <v>0.02595697750286922</v>
+        <v>0.02593628733868785</v>
       </c>
       <c r="P37">
-        <v>0.02595697750286922</v>
+        <v>0.01874134399780904</v>
       </c>
       <c r="Q37">
-        <v>64.70299544212349</v>
+        <v>105.2675636486225</v>
       </c>
       <c r="R37">
-        <v>64.70299544212349</v>
+        <v>421.0702545944901</v>
       </c>
       <c r="S37">
-        <v>0.0007424624679031058</v>
+        <v>0.000717206673389148</v>
       </c>
       <c r="T37">
-        <v>0.0007424624679031058</v>
+        <v>0.00034886774428922</v>
       </c>
     </row>
   </sheetData>
